--- a/500all/speech_level/speeches_CHRG-114hhrg93526.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93526.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Good morning. The Judiciary Committee will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to this morning's hearing on the unconstitutionality of President Obama's executive actions on immigration. I will begin by recognizing myself for an opening statement.    Last November, President Obama announced one of the biggest constitutional power grabs ever by a President. He declared unilaterally that, by his own estimation, almost 5 million unlawful aliens would be free from the legal consequences of their lawless actions. Not only that, by granting them deferred action, he would bestow upon them benefits such as legal presence, work authorization, and access to the Social Security Trust Fund and the Earned Income Tax Credit.    President Obama took these actions despite having stated over 20 times in the past that he didn't have the constitutional power to take such steps on his own. As the Washington Post's own ``Fact Checker'' concluded, ``Apparently, he's changed his mind.''    The Constitution is clear: It is Congress' duty to write our Nation's laws. Yet, President Obama admitted that, ``I just took an action to change the law.''    The Constitution is also clear that once laws are enacted, it is the President's responsibility to enforce them. The Constitution requires the President to take care that the laws be faithfully executed. Yet, the very integrity of our immigration laws is now in question.    Twenty-six States believe that President Obama's actions would cause them irreparable harm. They challenged his grant of deferred action in Federal district court in Texas. The court agreed with the States and has granted a temporary injunction halting, for the moment, the Administration's plans.    The court stated that the Administration is ``not just rewriting the laws. It is creating them from scratch.''    President Obama has justified his actions under the guise of prosecutorial discretion. Law enforcement agencies do have the inherent power to exercise prosecutorial discretion, the authority as to whether to enforce, or not enforce, the law against particular individuals.    However, telling entire classes of millions of unlawful aliens that they face no possibility of being removed is not prosecutorial discretion. It is simply an abdication of the executive branch's responsibility to enforce the laws.    The President relies on a memo prepared by his Justice Department's Office of Legal Counsel to attempt to justify his actions as constitutional. But that very memo finds that ``immigration officials' discretion in enforcing the laws is not unlimited. Limits on enforcement discretion are both implicit in, and fundamental to, the Constitution's allocation of governmental powers between the two political branches.''    The memo admits that the executive cannot, under the guise of exercising enforcement discretion, attempt to effectively rewrite the laws to match its policy preferences. And the memo quotes the Supreme Court's Heckler v. Chaney decision in stating that the executive branch cannot ``'consciously and expressly adopt a general policy' that is so extreme as to amount to an abdication of its statutory responsibilities.'' The memo, in fact, is an indictment of President Obama's actions.    The Federal court in Texas agrees. It found that the grant of deferred action ``does not simply constitute inadequate enforcement. The Government here is doing nothing to enforce the removal laws against a class of millions of individuals. The grant of deferred action does not represent mere inadequacy. It is complete abdication.''    And the court points out that President Obama's actions go beyond even utter nonenforcement. He is, in fact, granting affirmative benefits to these aliens, as I described earlier.    In absolutely no way can President Obama's actions be considered a justifiable use of the Administration's powers of prosecutorial discretion. They are a clear violation of his constitutional responsibility to faithfully execute the laws.    The President also mistakenly claims that his actions are nothing new. It is true that previous Presidents of both parties have provided immigration relief to groups of aliens. However, most often, the actions were based on emergencies in foreign countries, thereby relying upon the broad constitutional power given to a President to conduct foreign affairs.    For example, Chinese students were protected from deportation after the Tiananmen Square massacre of 1989.    What about President George H.W. Bush's Family Fairness policy, which the White House cites to justify its power grab? This grant of voluntary departure was, in fact, authorized by the Immigration and Naturalization Act as it existed at the time.    Without any crisis in a foreign country to justify his actions, and in granting deferred action without any statutory authorization, President Obama has clearly exceeded his constitutional authority. No Administration has so abused and misused the power of prosecutorial discretion as has the Obama administration.    By assuming legislative power, the Obama administration is driving full speed ahead to a constitutional crisis, tilting the scales of our three-branch government in his favor and threatening to unravel our system of checks and balances. This Administration has entered the realm of rewriting the laws when it can't convince Congress to change them.    The House of Representatives has taken decisive action this year to protect the Constitution. We have passed a Department of Homeland Security appropriations bill that would defund a series of unconstitutional actions of the Obama administration, including this grant of deferred action.    Tragically, the House-passed bill is being filibustered in the Senate even as appropriated funds for the department are set to run out at the end of the week.    By not even allowing the bill to be debated, those Senators who have chosen the path of filibuster and obstruction are threatening DHS's access to funds designed to keep Americans safe. They are also denying the American people a fair debate on this vital issue of whether Congress needs to take action to protect all our constitutional liberties. We can only hope that they will relent in time.    I look forward to today's hearing and the testimony of our witnesses.    It is now my pleasure to recognize the Ranking Member of the Committee, the gentleman from Michigan, Mr. Conyers, for his opening statement.</t>
   </si>
   <si>
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte, and to our witnesses.    Members of the Committee, in 3 days, the Department of Homeland Security will run out of funds. While tens of thousands of Federal Government workers could be furloughed, around 200,000 workers will be forced to come back to work without receiving a paycheck. They will be told to patrol the border, conduct investigations, and secure our ports, but they will not be paid.    Now, it is fairly well known that the Department of Homeland Security has notoriously low morale. That has been a problem since the department's creation a decade ago. This won't help.    But I am sure those workers will do their jobs, which is more than I can say for the legislative branch of our Federal Government. Why do I say that? Because Congress has certain responsibilities. Some are complicated and some are less complicated, and we have failed to live up to our responsibilities for years.    First, consider the most basic obligation we have. It is our responsibility to pass bills to fund the Government. If we don't do our job, the Government shuts down.    Congressional Republicans got their wish in October 2013 and shut the Government down for more than 2 weeks. Now, the majority here again is set on a collision course. This time, they will shut down the Department of Homeland Security because they refuse to pass a clean spending bill, because they want to block the Administration's executive actions on immigration.    Now, keep in mind that the spending bill we are talking about was negotiated between Republicans and Democrats in the House and the Senate. Truth be told, there are aspects of that bill that I disagree with. I strongly oppose that detention be mandated and believe that it is wasteful and unjust to include that language in the appropriations bill. But I also understand the importance of funding the Department of Homeland Security and the need to keep our Nation safe.    Second, Congress is also failing to do its jobs because it is ultimately our responsibility to fix our broken immigration system. Instead of doing that work, we are holding hearing after hearing to vilify the President for taking important and common-sense steps to prioritize the deportation of felons before families.    The limited legislation that this Committee has considered would make our immigration system even less efficient, less humane, and less able to meet the needs of American families and businesses.    Earlier this month, we held two Immigration Subcommittee hearings on draft language of four deportation-only bills that would separate families, strip protection from DREAMers, destroy the agricultural industry and the millions of jobs that depend on it, and return vulnerable children to face persecution and violence with no meaningful due process.    Finally, I want to note that the title of today's hearing demonstrates a glaring disrespect for the Office of the Presidency and for this institution's responsibility to conduct oversight that is rooted in fact, rather than political presumption. The title of today's hearing is ``The Unconstitutionality of Obama's Executive Actions on Immigration.'' Not ``President Obama's Executive Actions,'' but ``Obama's Executive Actions.'' Since when are we on such familiar terms with our Commander in Chief? I cannot recall a previous Administration during which Members of Congress from either side of the aisle showed such a persistent disrespect for the Office of the Presidency.    The title of this hearing is also interesting because it is a statement, not a question. It just presumes that the Administration's actions are unconstitutional, even though no court has found the actions unconstitutional, and there is strong legal authority and historical precedent supporting these policy decisions.    So in closing, our current immigration system is not working for American families, businesses, or the economy. These problems require real legislative solutions. So I urge my colleagues on this Committee to start doing the job that we were sent here to do.    Mr. Chairman, I yield back the balance of my time and thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman.    Mr. Chairman, the thread that holds the tapestry of our country together is respect for and adherence to the rule of law. The law is the greatest unifying and the greatest equalizing force that we have in our culture. The law is what makes the richest person drive the precise same speed limit as the poorest person. The law is what makes the richest person in this country pay his or her taxes on precisely the same day as the poorest person in this country.    The law, Mr. Chairman, is symbolized by a blindfolded woman holding a set of scales and a sword. The law is both a shield and a sword. And it is the foundation upon which this Republic stands.    We think so highly of the law, Mr. Chairman, that in the oath of citizenship administered to those who pledge allegiance to this country, to their new country, it makes six different references to the law. So attempts to undermine the law via Executive fiat, regardless of motivation, are detrimental to the foundation of a democracy.    President Obama, after the November midterm elections, I hasten to add, announced one of the largest extraconstitutional acts ever by a Chief Executive. He declared, unilaterally, almost 5 million undocumented aliens would receive deferred action under some newfangled definition of prosecutorial discretion. Moreover, in addition to using prosecutorial discretion as a license to rewrite the law, he also conferred benefits on those same people.    You may like the policy. You may wish the policy where the law. But one person does not make law in a republic. If you enjoy a single person making law, you should investigate living in another country, because our Framers did not give us, nor have generations of our fellow citizens fought and served and sacrificed for a single person to make law in a unilateral way.    So removing consequences for breaking the law is one thing. Distilling benefits such as work authorization and immigration benefits is another.    The President himself recognized his own inability to do this, Mr. Chairman. More than 20 separate times he said he lacked the power to do what he ultimately did.    In 2011, he said this, and I quote, ``The notion that I could just suspend deportations through Executive orders, that is just not the case.'' He told us time and time again, Mr. Chairman, that he was not a king.    His position may have changed, but the Constitution has not. And that document is clear and it is time-tested and it is true, and it says that Congress passes laws and it is the responsibility of the Chief Executive to take care that those laws are faithfully enforced.    Prosecutorial discretion----    [Technical difficulty.]</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman. The 113th Congress is considered to have been one of the most do-nothing Congresses in history. The biggest symbol of the Republican failure to govern was the unnecessary and irresponsible shutdown that lasted from October 1 through October 16. Federal employees were furloughed for a combined total of 6.6 million days. $2 billion was spent on payroll to these furloughed employees for work that they were prevented from doing. The recovering economy took a hit, and millions of Americans were denied access to programs and services that they rely on.    Perhaps it is fitting, then, that the 113th Congress ended with the so-called Cromnibus, a spending bill that promised to yet again put us on the path toward a government shutdown.    We are only 2 months into the 114th Congress, but it already seems like the Republican majority in the House and Senate is trying to outdo itself. For the past 6 weeks, rather than proceed with the DHS funding bill that Democrats and Republicans in the House and Senate agreed to last year, Republican leaders in the House and Senate have insisted that funding be contingent on a series of poison pill immigration riders demanded by the most extreme Members and supported by all but a few.    Since the Cromnibus was first hatched, many Republicans have argued that the President acted unconstitutionally on November 20, when he and the Secretary of Homeland Security announced a series of measures designed to bring a measure of sense to our broken immigration system. We have been told that these measures cannot be permitted to take effect.    Last week, of course, a Federal judge issued a preliminary injunction halting two of those measures, the Deferred Action for Parental Accountability Program and the expansion of the Deferred Action for Childhood Arrivals program. These efforts are designed to offer temporary protection from deportation to certain parents of U.S. citizens and lawful permanent residents, and to DREAMers with long ties to our country. The Department of Justice this week requested a stay of the injunction and noticed an appeal.    The matter is firmly in the hands of the Federal courts, the branch of the Government that the Constitution entrusts to settle disputes arising under the Constitution and the laws of the United States.    Some people, including some Republicans in the House and Senate, have speculated that a court injunction would convince Republican leadership to stop holding the spending bill hostage. What we have seen over the past 2 weeks, however, is that many Republicans are even more determined to take us over a cliff and once more shut down the Government.    Several points are worth noting. First, we continue to hear Republicans minimize the impact of a shutdown on national security by arguing that 85 percent of DHS employees were deemed essential during the last Government shutdown. I just can't understand how we in Congress would take comfort at the idea of forcing Border Patrol agents to secure our borders, Coast Guard personnel to patrol the seas, and ICE officers and agents to conduct law enforcement investigations and secure detention facilities, without receiving their paycheck. It is unconscionable, really.    Further, it is bizarre that we will de-fund of the E-Verify program, stop the immigration enforcement efforts, but at the same time, because they are fee-supported, the processing of immigration petitions will be unimpeded. So the effort stops immigration enforcement, but it does nothing to actually stop the processing of immigration petitions.    Second, since we know the court has already temporarily halted implementation of DAPA, expanded DACA, it is important to remember what other initiatives congressional Republicans are trying to block as part of DHS funding. They voted overwhelmingly to eliminate the DACA program itself, stripping protection for more than 600,000 DREAM Act kids and subjecting them once more to deportation. They voted to prevent DHS from implementing a new enforcement strategy along our southern border and creating three new law enforcement task forces. They voted to block DHS and DOD from working together to ensure that U.S. citizens who wish to enlist in the military would be able to do so notwithstanding immigration status of close relatives. They voted to stop DHS from taking important steps to capitalize on the talents of entrepreneurs, to help companies attract and retain highly skilled immigrants, and to promote citizenship.    Just yesterday, USCIS issued a final rule extending work authorization to the spouses of certain H-1B visa holders who are beneficiaries of approved employment-based immigrant visa petitions. If the appropriations bill passed by the House were to have become law, USCIS would have been prevented from finalizing that rule.    Republicans don't talk about the fact that they are refusing to fund DHS unless they block each of these efforts, but that is what they voted to do.    Turning to today's hearing, I note that although the title of this hearing, as has been mentioned, presumes that the President's executive actions are unconstitutional, no court, including the Texas District Court that issued the preliminary injunction, has found that these actions are unconstitutional.    In fact, a challenge to the original DACA program brought by the State of Mississippi was thrown out of court for lack of standing. And a challenge to the Administration's recent executive actions blocked by Maricopa County Sheriff Joe Arpaio was also dismissed for lack of standing.    Of course, I am disappointed by the court's ruling, and I know millions of American families across the country are also greatly disappointed. Still, I expect that both programs will be upheld as fully within the President's legal authority by appellate courts.    I say this because there is ample legal and historical precedent supporting the President's action. The Supreme Court has long recognized the Administration's authority to exercise prosecutorial discretion when enforcing our immigration laws and has specifically recognized that granting deferred action is a legitimate exercise of that authority. Congress directed the Secretary of Homeland Security to establish national enforcement priorities and policies, and empowered the Secretary to perform acts that he deems necessary for carrying out his authority under the Immigration and Nationality Act.    Every year, Congress gives the Administration only enough money to apprehend, detain, and remove a fraction of the people in this country who are removable, and additionally directs the department to prioritize the removal of people with criminal convictions based on the severity of the offense. Although the Texas court ruling seems to turn on the fact that DACA recipients may apply for work authorization and Social Security cards, it fails to acknowledge that the legal authority for granting work authorization and Social Security cards is entirely distinct from the authority to grant deferred action and, in fact, is statutory. All of those authorities long predated DACA, and Congress has never taken action to limit that discretion.    This is arguably the fourth hearing, Mr. Chairman, that we have held on the legal authority of the President's actions on immigration. The last two hearings----</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Laxalt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Laxalt. Mr. Chairman, Ranking Member Conyers, and Members of the Committee, my name is Adam Paul Laxalt, and I am the Attorney General of Nevada. On behalf of Nevada, I thank you for the opportunity to testify today about the States' lawsuit challenging President Obama's unilateral executive action granting deferred action to over 4 million people. I represent one of the 26 States that have sued the Federal Government.    While immigration is the substantive issue underlying the President's executive action, this lawsuit is not ultimately about immigration. Rather, it is about the President's attempt to change the law through unconstitutional executive action.    Like most of us, I am the descendent of immigrants. My ancestors came here in search of a better life. My grandfather, Paul Laxalt, was the son of an immigrant sheepherder. He rose to become the Governor of Nevada and a United States Senator. In our Nation's history, similar stories have been repeated over and over. They are what we have come to know as the American dream.    However, it has never been true that in order to sympathize with the plight of immigrants, or to believe in the American dream, one must reject our constitutional system. To borrow a phrase our President is fond of using, that is a false choice. In significant part, it is our commitment to the rule of law and to our Constitution that has drawn people to our shores across generations.    Before taking unilateral action, the President said the following, ``I am President. I am not the king. I can't do these things just by myself.'' ``There is a limit to the discretion that I can show, because I am obliged to execute the law.'' ``I can't just make the laws up myself.'' ``We can't ignore the law.'' ``The fact of the matter is, there are laws on the books that I have to enforce.'' These are a series of comments the President made before this action.    Subsequently, on November 20, 2014, after repeatedly acknowledging his duty to faithfully enforce the immigration laws passed by this body, and after emphasizing that he lacked the authority to unilaterally change those laws, President Obama directed his Secretary of Homeland Security to do just that and change the law. To quote the President himself, he said, ``I just took an action to change the law,'' that on November 25.    In accord with earlier statements by the President, a coalition of States brought suit in Federal court to enjoin the President's unilateral action. Since the lawsuit was originally filed, the number of States challenging the President's action has grown to the majority of the 50 States. The States' lawsuit focuses on three areas.    First, the Constitution requires the President take care that the laws be faithfully executed. During the Korean War, President Truman, relying on the exigencies of war, unilaterally seized the Nation's steel mills. President Truman justified unilateral action because Congress had refused to pass a statute authorizing his action. The Supreme Court held that Truman's actions were unconstitutional.    Here, as Judge Hanen, the Federal judge presiding over this case, has observed, no statute gives the Department of Homeland Security the discretion it is trying to exercise. Quite the contrary, the President's Executive order not only ignores the dictates of Congress, but actively thwarts them. For the same reason that Truman's unilateral action in the steel seizure case was held unconstitutional by the Supreme Court, we think President Obama's unilateral action here is unconstitutional.    Second, Federal statutory law, namely the Administrative Procedures Act, similarly requires that when an agency issues a substantive rule, it must be consistent with Congress' clear statutory commands. Under unambiguous Federal statutory law, the Department of Homeland Security--here I quote Judge Hanen again--is tasked with the duty of removing illegal aliens. Congress has provided that it shall do this. The word ``shall'' certainly deprives the DHS of the right to do something that is clearly contrary to Congress' intent.    The President's plan that millions of illegally present individuals be granted legal present work authorization eligibility for State and Federal benefits cannot be squared with Federal law, and, therefore, we believe violates the Administrative Procedures Act.    Third, when a Federal agency changes the rules, like the President has ordered here, the Administrative Procedures Act also requires that due process is followed. That is, the agency must give fair notice of the rule change and allow public comment before implementing the change. Everyone agrees that was not done here, so this is the third reason the States are arguing the President's action violates the law.    As you all know, on February 16, Judge Hanen found the States had standing and issued a preliminary injunction enjoining the implementation of the DAPA program. Now why Nevada joined, as Nevada's chief law enforcement officer, Nevada law requires that I initiate or join litigation wherever necessary to protect and secure the interests of the State.    This suit is not about immigration. It is not about politics. It is about the rule of law and our constitutional system. This lawsuit transcends policy differences and seeks to prevent legislation from being usurped by executive fiat.    Nevada joined this lawsuit because upholding our constitutional process is more significant than any policy directive that any political party may be pushing at a particular time.    Thank you again, Mr. Chairman, for allowing me to testify before this Committee about this important issue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, General Laxalt.    Professor Blackman, welcome. I understand your parents are with us today.</t>
   </si>
   <si>
-    <t>Blackman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blackman. My dad is in the same color tie, so you know who he is.</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Professor Blackman.    Professor Foley, welcome.</t>
   </si>
   <si>
-    <t>Foley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Foley. Chairman Goodlatte, Ranking Member Conyers, Members of the Committee, thank you for the opportunity to testify again today.    My criticisms with the President's immigration actions are based on legal process and not any particular policy or political results. What shape immigration reform may ultimately take is not my concern as a constitutional scholar. My sole concern is with preserving the Constitution and its separation of powers architecture.    President Obama has repeatedly said that his motivation for taking executive action on immigration is because he wants to fix our broken immigration system. What this means is that he is trying to fix our immigration law because, of course, immigration law is the only immigration system that we have.    So he thinks our immigration law is broken, and he believes that it is broken because it fails to exempt certain categories that he thinks deserve exemption from deportation and to whom he believes the law should grant benefits, such as work permits. But fixing a law by unilaterally changing it by granting exemptions, remedies, and benefits that the law doesn't provide is legislating. Or to be more precise, it is amending. That is a power that is given exclusively to Congress by the Constitution.    The President's duty under the Constitution is not to fix a law that he thinks is broken, but to faithfully execute that law. When a President takes it upon himself the power to change a law he doesn't like, we have no democracy anymore. We have, instead, a legislature of one.    If Congress doesn't oppose President Obama's Executive orders on immigration, it will be writing its own institutional obituary. When Congress fails to express disagreement with executive action, the courts tend to construe that as acquiescence or implied authorization by Congress. This is so-called category one from Justice Jackson's concurrence in the Youngstown steel seizure case. So Congress needs to be very careful here. It has a constitutional responsibility to vigorously protect its turf.    President Obama's immigration actions are unconstitutional for three separate and distinct reasons that I elaborate in the written statement. First, they alter the status of certain illegal immigrants, magically transforming them from deportable to not deportable. Second, they provide a remedy called deferred action that Congress has not explicitly or implicitly authorized for this category of people. Third, they confer benefits upon certain illegal immigrants that, again, Congress has not explicitly or implicitly approved for this population.    While any one of these particular reasons will render executive action unconstitutional, when you have all three of them existing as you do here with President Obama's executive actions on immigration, it creates sort of a Bermuda Triangle of unconstitutionality that has a uniquely powerful gravitational pull that is capable of eviscerating Article I's legislative powers.    It is the combination of all three of these aspects of President Obama's Executive orders on immigration that make it uniquely dangerous to this institution. I would like to highlight two points that I elaborate on in the written statement that I think bear a little special mention.    First, by granting work permits to DACA and DAPA recipients, President Obama's immigration orders encourage employers to hire illegal immigrants over lawful residents. That is because the Affordable Care Act does not allow illegal immigrants to obtain tax credits when they buy qualifying health insurance. So what happens is if you hire more DACA and DAPA recipients, this lessens the employer's exposure to what is called the employer responsibility tax under the ACA. So the more illegal immigrants you hire who are eligible for DACA and DAPA, then the fewer who are eligible to buy health insurance, and the fewer who are going to obtain a tax credit for doing so, and, therefore, the fewer employees that you have in your workplace who are capable of triggering that employer responsibility tax.    Now, why do I go into that detail? Because it means one important thing. President Obama's immigration actions undermine the ACA itself by undermining its goal of providing insurance via the workplace. So it is no small irony here that by granting work permits to DACA and DAPA recipients, President Obama is, in fact, undermining his own signature legislative achievement.    Second, DACA and DAPA recipients are eligible to apply for something called for advance parole. That means they can get advanced permission to leave the country and come back relatively quickly. Without advance parole, if you enter this country illegally and you leave, you have to then stay out for a long period of time, usually about 3 to 10 years, before you are allowed to reenter. So once a DACA or DAPA recipient reenters this country after being advanced paroled, they are considered to be paroled back into the country, and paroled individuals under the statute are eligible to adjust their legal status. They can do this as long as they qualify for a visa, such as, let us say, an employer-sponsored visa.    So what does this mean? It means that at least for some DACA and DAPA recipients, obtaining advanced parole will provide a----</t>
   </si>
   <si>
@@ -145,18 +124,12 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Professor.    Professor Legomsky, welcome.</t>
   </si>
   <si>
-    <t>Legomsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Legomsky. Thank you very much, Mr. Chairman, Ranking Member Conyers, and honorable Members of this Committee, for the privilege of testifying at this important hearing.    I appreciate that reasonable minds can and do differ about the policy decisions, but I want to respectfully share my opinion that the President's actions are clearly within his legal authority. That is not just my opinion, by the way. This past November, 135 immigration law professors and scholars joined in a letter expressing their views that these actions are ``well within the legal authority of the executive branch.''    We are people who have spent years and, in some cases, including mine, decades studying, teaching, researching, and writing on immigration law, and we are very familiar with what the statute allows and what it forbids.    The President has not just one, but multiple sources of legal authority for these actions, and I have submitted a detailed written statement that documents each of them. I also identify there every legal objection I could think of that the President's critics have offered, and I explain why, in my view, none of them ultimately withstand scrutiny.    So with limited time, I will hit just a few key points and refer you, please, to the written statement.    Deferred action has been standard agency practice for many decades, and it has been expressly recognized by Congress in several provisions and in many court decisions. Furthermore, every lawyer knows that statutes are not the only source of law. The most explicit legal authority for deferred action, but not the only authority, is in the formal agency regulations, which have authorized it since the earliest days of the Reagan administration. These regulations, by the way, were adopted through notice and comment procedures, and they do have the force of law.    None of these laws, not one of them, says or even remotely implies that deferred action is per se illegal whenever the number of recipients is large.    The most vocal critics, including Judge Hanen in Brownsville, have misunderstood what deferred action is. They have confused deferred action itself with certain things you can apply for if you get deferred action. Deferred action itself is just one form of prosecutorial discretion. It is a decision not to prioritize a person's removal, at least for the moment. The only thing affirmative about it is that the agency is giving the person a piece of paper, letting them know that that is the case.    Every immigration scholar and practitioner knows that deferred action can be revoked at any time for any reason, and the Government can bring removal proceedings at any time. Contrary to what my new friend Professor Foley has said, there is nothing in any law that says that this makes a person who is deportable not deportable or that it gives them some kind of status. That is simply not true.    It is true that existing laws allow deferred action recipients to apply for certain other things, including work permits, and if they are granted, Social Security cards.    But the executive actions do not touch any of those laws. So my feeling is, if you object to them, then by all means, argue for challenging them. But there is nothing wrong with deferred action itself, or this particular use of it.    Importantly also, DACA and DAPA applications----</t>
   </si>
   <si>
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Mr. Chairman? Can we ask the witness to speak into the microphone, please?</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    Mr. Legomsky, let us go back to your political theater remark, because there have been two lines on that political theater that our friends on the other side of the aisle have played over and over again for audiences around the country.    One of them was kind of found in your testimony, your written testimony, that this Administration is okay because they have removed more immigrants, illegal immigrants, than any other Administration. In fact, you state in here that they have removed, I think you said 2 million aliens.    But isn't it really a little deceptive, because aren't about half of those removals claimed by ICE? They actually originate because they are caught along the border. In fact, one of the articles pointed out said this: The statistics are deceptive because, Obama explained, enhanced border security has led to Border Patrol agents arresting more people as they cross into the country illegally. Those people are quickly sent back to their countries, but are counted as deported illegal immigrants.    Is that a fair statement?</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you. I must begin by saying I am surprised to hear the attorney general of a great State confusing political statements with legal statements. All the quotes from the President are interesting in a political debate and a political discussion. They are not interesting in terms of what his powers actually are--his opinions, frankly, in a political context at all.    What is interesting, what is relevant, as the attorney general should know, as everyone here should know, are what the laws are, the precedents are, the court decisions are, not the President's or anybody else's political statement in any context.    Let me ask Professor Legomsky, we heard that the President's exercise of discretion, since it is categorical, is somehow different, and that he is establishing categories of people to whom he is giving rights that Congress hasn't chosen to give. Essentially, that is the gravamen of what we are being told, I think.    I think, rather, and please comment on this, that that is untrue. The President is exercising discretion in granting deferred action to certain people he can choose. The Supreme Court has said it. Congress has specifically said it. He can choose to do that by group, by category.    In fact, it would be difficult, I mean, if the President came out with a list and said the following 2 million people by name are granted deferred action, we would think that is sort of ridiculous, although I don't think anybody would question his authority to do that.    By doing it by category, I don't think he changes that. And please comment on the fact that he isn't invading Congress' prerogative because this deferred action can be revoked at any time, number one. It confers no permanent benefits. It has been stated repeatedly that these people get benefits. They may get a Social Security card, but my understanding is they don't get benefits.    Could you comment on those two points?</t>
   </si>
   <si>
@@ -322,9 +289,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Mr. Chairman.    Mr. Chairman, it is often said that when human rights and human laws are in human hands that men lose their freedom.    Professor Foley, I sometimes am entertained by reading from the Federalist Papers to law professors like yourself. I am not an attorney, so it just gives me a little thrill, you understand?    But in Madison statements in Federalist No. 47, he stated that, ``The accumulation of all powers, legislative, executive, and judiciary, in the same hands, whether of one, a few, or many, and whether hereditary, self-appointed, or elective, may justly be pronounced the very definition of tyranny.''    The Framers of the Constitution understood that the accumulation of powers and tyranny were inseparable. They rejected giving the newly created Chief Executive the legal authority to suspend or dispense with the enforcement of the laws. That, of course, in their minds, was the province of Congress.    So my question to you is, do you believe that the President's recent actions comport with the Framers' conclusions? And is President Obama refusing to adhere to the ``take care'' clause in an attempt to evade the will of Congress? And was he acting constitutionally when he did that?</t>
   </si>
   <si>
@@ -385,9 +349,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman. Thank you to the witnesses who are here today.    I want to direct the first question to our two law professors. Did both of you read the 123-page opinion by Judge Hanen?</t>
   </si>
   <si>
@@ -418,9 +379,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank you very much, Mr. Chair. I think it is appropriate to acknowledge we have Members here and witnesses here, how much we appreciate you coming and offering your testimony.    I also think it is important to acknowledge that there are many issues that this Judiciary Committee, my friends on the other side of the aisle, Republicans and Democrats work together and collaborate on. I think that should be a message preceding the very vigorous disagreement and unfortunate interpretation that is now given at this hearing.    Let me associate myself with the words of my Chairman. I would like to think that this is a hearing regarding President Barack Obama's executive actions, and I would prefer him not to be called ``Obama'' and to honor the office which he holds.    I also want to acknowledge the Constitution. We went through this argument, to the various professors, with respect to the powers of this President. And we all can interpret the final words of Section 2, that deals with ``shall take Care that the Laws be faithfully executed.'' And, therefore, we make the argument that the executive actions are in actuality a reflection of those laws being faithfully executed.    So I don't really want you all to suggest that I am trying to show my smiling face, but immediately when the order came out from Texas, Texans and families that would have been severely impacted came together and said they stand with the President for the humanitarian, the relief, the authorized relief, the discretionary relief, that allows him not to convey status, but, through his Attorney General, to be able to have prosecutorial discretion and to be able to discern the prioritization, Professor, of crooks and criminals, felons versus the families.    These are family members. This is an example of a parent who would be, if you will, separated from their child.    And I think I want to make sure and that I have Professor, is it Legomsky? I am so sorry.</t>
   </si>
   <si>
@@ -454,9 +412,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. I have a request that, since I am running among three hearings today, would the Chairman skip me for a moment?</t>
   </si>
   <si>
@@ -466,9 +421,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. I thank the Chairman.    Professor Foley, a number of my colleagues on the other side of the aisle have said Republicans are holding the DHS funding bill hostage. Now, Professor, we passed legislation last month that funds the Department of Homeland Security at the levels they agreed to, levels they wanted.    So in your opinion as a legal scholar, do you think we have held anything hostage, or have we done just what, constitutionally, we are supposed to do?</t>
   </si>
   <si>
@@ -532,9 +484,6 @@
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    Professor Legomsky, you said how many different professors or attorneys specializing in immigration law felt that this was appropriate and constitutional?</t>
   </si>
   <si>
@@ -616,9 +565,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I am over here on the far right. Let me ask you some questions. Thank you all for being here.    Professor Blackman, thank you also for being here. South Texas, I couldn't get into South Texas, but I am glad you are here.</t>
   </si>
   <si>
@@ -658,9 +604,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Mr. Chair, I would like to enter into the record, the Center for American Progress report that says it would cost $50 billion to deport the estimated 5 million people who would benefit under DACA and DAPA.</t>
   </si>
   <si>
@@ -724,9 +667,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman.    Mr. Chairman, in less than 3 days, the Department of Homeland Security is going to run out of funding. At that time, critical security operations are going to be scaled back and others will be shut down. Cyberattacks in North Korea won't shut down. The recruitment of more terrorists by ISIS won't shut down. And gang violence below our southern border won't shut down.    This Congress is on the verge of forcing over 100,000 DHS employees to work without pay and put another 30,000 employees on furlough. They are TSA agents and port inspectors, disaster relief staff and intelligence experts, Coast Guard members and Border Patrol officers.    My question is, is this how the new Republican Congress treats people who report to work every day to protect our country? These Americans have mortgages to pay. They have children to support. They have homes to keep warm, car tanks to fill up, and local businesses to support.    Homeland Security funding has nearly dried up for one simple reason. Some Members of the majority are more concerned with pleasing the anti-immigrant fringe than paying the men and women who go to work every day protecting the security of our Nation.    They are holding DHS funds hostage. Their demand? That we mandate the deportation of thousands of students and young people who arrived here illegally as small children. That we deport immigrants who have small children who never chose to break the law from the only home that they have ever known.    Now, with little time left until our Homeland Security funding expires, this Committee is using precious time on a hearing on whether the President's immigration Executive orders are constitutional. Since the founding of our Nation, questions involving the constitutionality of executive actions have been heard and resolved by the judicial branch. And questions of whether the President's Executive orders on immigration are constitutional are being heard in courts as we speak.    I happen to believe that the President's Executive orders on immigration are constitutional, but I also understand that some of my colleagues disagree. I respect that.    Still, the fact remains that defunding DHS will not advance my Republican colleagues' stated goal of nullifying these Executive orders. Defunding DHS will not ramp up deportation. On the contrary, forcing border agents and immigration court officials to work without pay or to go on furlough most likely will slow down deportation.    Now my Republican colleagues want a border security enforcement-only approach to immigration policy. Well, guess what? That is the policy that has been in place for years, and it is not working, even with the record-breaking deportation numbers of this Administration.    It is logistically and financially impossible to locate, prosecute, and deport 11 million undocumented immigrants in the United States.    Like other law enforcement agencies, Immigration and Customs Enforcement must work with the budget that it is handed. That means exercising discretion, choosing which deportation should proceed and which should be put on hold, or, as the President calls it, deferred.    Do we deport a member of a gang or a college student who arrived here illegally when she was 3? Do we deport the mother of an American child or do we try to keep families together? These are the questions that Republicans in Congress have refused to answer year after year after year with a comprehensive immigration reform bill. These are the questions that my Republican colleagues left President Obama to answer with his November 20 Executive orders on immigration.    The President's Executive orders don't change the law. They are temporary. They simply ensure undocumented immigrants living, working, and raising families in our communities that they will not be deported before someone with a felony or a serious misdemeanor.    We should be working day and night to keep the Department of Homeland Security funded and fully operational instead of holding hearings on questions that the courts are in the process of answering. The safety of the public and the well-being of our communities must be the priority of immigration enforcement officials, and I humbly suggest that it should also be the priority of this Congress.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -832,9 +772,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. Let me also thank the Ranking Member of the full Committee for his presence here.    I want to start with the Attorney General and perhaps further explore this question of prosecutorial discretion in the context of the President's Executive order. So there are approximately, I believe, 11 million undocumented immigrants in this country, correct?</t>
   </si>
   <si>
@@ -907,9 +844,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. I would like to point out that my good friend Mr. Jeffries is comparing apples and oranges. There is nobody in Congress who is trying to defund Homeland Security except for the Democrats. We actually funded fully the Department of Homeland Security, except for the President's illegal and unconstitutional actions. It seems like my friends on the other side are willing to put 5 million illegals ahead of the safety and security of the United States.    I just want to make that clear, because we passed a bill that fully funds--in fact, as was previously stated, not only fully funds but funds above the levels that the President asked for. We completely funded the Department of Homeland Security. The only people that are stopping this funding are Democrats in the Senate that are not even willing to listen to an argument why we should have this bill passed through Congress.    So there is nobody here on my side who is trying to defund this.    Mr. Legomsky, I listened to your testimony. I have been sitting here the whole time. I understand you are a professor of law, and you also were the chief counsel for USCIS. Is that correct?</t>
   </si>
   <si>
@@ -991,9 +925,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman is out of time. I thank the gentleman from Idaho.    The Chair will now recognize the gentleman from Illinois, and apologize for overlooking him last time. It was inadvertent.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. I know that, Mr. Chairman. It is good to be with you all this afternoon.    Mr. Chairman, could I have my staff assistant hand out a memorandum that was November 4 to all of our witnesses, so they have a copy?</t>
   </si>
   <si>
@@ -1012,9 +943,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Will the gentleman yield?</t>
   </si>
   <si>
@@ -1081,9 +1009,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. I would like to yield my time to the gentleman from South Carolina, Mr. Collins.</t>
   </si>
   <si>
@@ -1186,9 +1111,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    First of all, I want to thank all of the witnesses. It has been a very enlightening hearing. So thank you all for being here today.    We have had several exchanges from Members regarding this idea of prosecutorial discretion. As a former prosecutor myself, I understand and appreciate the need for prosecutorial discretion when it comes to ensuring justice. That is the role of the prosecutor.    However, what I do not understand, in this context, is how this remedy that has been created, deferred action, exceeds what we now know as prosecutorial discretion. And in fact, Professor Foley, you indicated that the President's immigration order is unconstitutional for three reasons, and this was the second reason, and that was the creation of the remedy deferred action. Can you expound on that and tell me how it is different from ordinary prosecutorial discretion?</t>
   </si>
   <si>
@@ -1220,9 +1142,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Professor Legomsky, I just want to make sure I have it right. Obama's statements 22 times that he said he didn't have the authority, you are saying that he just meant that he didn't have the authority to suspend all deportations. Is that accurate?</t>
@@ -1681,11 +1600,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1705,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1733,11 +1648,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1757,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1783,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1811,11 +1720,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1835,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1863,11 +1768,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1887,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1915,11 +1816,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1939,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1967,11 +1864,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1991,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2019,11 +1912,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2043,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2071,11 +1960,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2095,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2123,11 +2008,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2147,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2175,11 +2056,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2199,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2225,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2251,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2279,11 +2152,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2303,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2329,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2357,11 +2224,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2381,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2409,11 +2272,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2433,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2461,11 +2320,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2485,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2513,11 +2368,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2537,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2565,11 +2416,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2589,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2617,11 +2464,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2641,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2669,11 +2512,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2693,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2721,11 +2560,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2745,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2773,11 +2608,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2797,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2823,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2849,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2875,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2901,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2927,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2953,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2979,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3005,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3031,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3057,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3083,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3109,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3135,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3161,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3187,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3213,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3239,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3265,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3291,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3317,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3343,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3369,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3395,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3421,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3447,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3473,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>88</v>
-      </c>
-      <c r="H71" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3499,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3525,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3551,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3577,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
-      </c>
-      <c r="G75" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3603,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3629,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3655,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3683,11 +3448,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3707,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3735,11 +3496,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3759,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3785,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3811,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3837,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3863,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3889,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3915,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3941,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3967,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3993,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4019,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
-      </c>
-      <c r="G92" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4045,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4071,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4097,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4123,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4149,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4175,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4201,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4227,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4253,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4279,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4305,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4331,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4357,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G105" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4383,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4409,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G107" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4435,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4461,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4487,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4513,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4539,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4565,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
-      </c>
-      <c r="G113" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4591,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4617,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>149</v>
-      </c>
-      <c r="G115" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4643,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4669,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
-      </c>
-      <c r="G117" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4695,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4721,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
-      </c>
-      <c r="G119" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4747,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4773,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
-      </c>
-      <c r="G121" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4799,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4825,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>149</v>
-      </c>
-      <c r="G123" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4851,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4877,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
-      </c>
-      <c r="G125" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4903,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4929,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
-      </c>
-      <c r="G127" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4955,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4981,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
-      </c>
-      <c r="G129" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5007,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5033,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
-      </c>
-      <c r="G131" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5059,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5085,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>133</v>
-      </c>
-      <c r="G133" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5111,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5137,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5163,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>171</v>
-      </c>
-      <c r="G136" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5189,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5215,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>171</v>
-      </c>
-      <c r="G138" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5241,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5267,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>171</v>
-      </c>
-      <c r="G140" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5293,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5319,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>171</v>
-      </c>
-      <c r="G142" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5345,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5371,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>171</v>
-      </c>
-      <c r="G144" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5397,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5423,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5449,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5475,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5501,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5527,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
-      </c>
-      <c r="G150" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5553,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5579,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
-      </c>
-      <c r="G152" t="s">
+        <v>155</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
         <v>172</v>
-      </c>
-      <c r="H152" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5605,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
-      </c>
-      <c r="G153" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5631,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>171</v>
-      </c>
-      <c r="G154" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5657,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
-      </c>
-      <c r="G155" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5683,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>171</v>
-      </c>
-      <c r="G156" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5709,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
-      </c>
-      <c r="G157" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5735,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>171</v>
-      </c>
-      <c r="G158" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5761,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5787,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>171</v>
-      </c>
-      <c r="G160" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5813,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5839,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>199</v>
-      </c>
-      <c r="G162" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5865,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5891,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>199</v>
-      </c>
-      <c r="G164" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5917,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5943,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>199</v>
-      </c>
-      <c r="G166" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5969,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5995,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>199</v>
-      </c>
-      <c r="G168" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6021,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6047,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>199</v>
-      </c>
-      <c r="G170" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6073,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6099,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>199</v>
-      </c>
-      <c r="G172" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6125,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6151,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>213</v>
-      </c>
-      <c r="G174" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6177,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6203,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>213</v>
-      </c>
-      <c r="G176" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6229,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
-      </c>
-      <c r="G177" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6255,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>213</v>
-      </c>
-      <c r="G178" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6281,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6307,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>213</v>
-      </c>
-      <c r="G180" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6333,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6359,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6385,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6411,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>145</v>
-      </c>
-      <c r="G184" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6437,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6463,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>145</v>
-      </c>
-      <c r="G186" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6489,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
-      </c>
-      <c r="G187" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6515,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>145</v>
-      </c>
-      <c r="G188" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6541,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
-      </c>
-      <c r="G189" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6567,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>145</v>
-      </c>
-      <c r="G190" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6593,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G191" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6619,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>145</v>
-      </c>
-      <c r="G192" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6645,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6671,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>145</v>
-      </c>
-      <c r="G194" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6697,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6723,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>235</v>
-      </c>
-      <c r="G196" t="s">
-        <v>236</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6749,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6775,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6801,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6827,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6853,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6879,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
-      </c>
-      <c r="G202" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6905,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6931,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
-      </c>
-      <c r="G204" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6957,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6983,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
-      </c>
-      <c r="G206" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7009,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7035,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
-      </c>
-      <c r="G208" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7061,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7087,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
-      </c>
-      <c r="G210" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7113,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7139,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
-      </c>
-      <c r="G212" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7165,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7191,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
-      </c>
-      <c r="G214" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7217,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7243,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
-      </c>
-      <c r="G216" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7269,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7295,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
-      </c>
-      <c r="G218" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7321,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7347,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7373,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7399,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
-      </c>
-      <c r="G222" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7425,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7451,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
-      </c>
-      <c r="G224" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7477,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7503,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
-      </c>
-      <c r="G226" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7529,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7555,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
-      </c>
-      <c r="G228" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7581,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7607,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>271</v>
-      </c>
-      <c r="G230" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7633,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7659,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>271</v>
-      </c>
-      <c r="G232" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7685,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7711,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>271</v>
-      </c>
-      <c r="G234" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7737,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7763,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>271</v>
-      </c>
-      <c r="G236" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7789,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7815,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>271</v>
-      </c>
-      <c r="G238" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7841,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7867,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>271</v>
-      </c>
-      <c r="G240" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7893,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
-      </c>
-      <c r="G241" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7919,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>271</v>
-      </c>
-      <c r="G242" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7945,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7971,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>271</v>
-      </c>
-      <c r="G244" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7997,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
-      </c>
-      <c r="G245" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8023,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>271</v>
-      </c>
-      <c r="G246" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8049,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>29</v>
-      </c>
-      <c r="G247" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8075,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>271</v>
-      </c>
-      <c r="G248" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8101,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8127,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
+        <v>251</v>
+      </c>
+      <c r="G250" t="s"/>
+      <c r="H250" t="s">
         <v>271</v>
-      </c>
-      <c r="G250" t="s">
-        <v>272</v>
-      </c>
-      <c r="H250" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8153,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
-      </c>
-      <c r="G251" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8179,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>271</v>
-      </c>
-      <c r="G252" t="s">
-        <v>272</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8205,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8231,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>296</v>
-      </c>
-      <c r="G254" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8257,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
-      </c>
-      <c r="G255" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8283,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>296</v>
-      </c>
-      <c r="G256" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8309,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
-      </c>
-      <c r="G257" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8335,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>296</v>
-      </c>
-      <c r="G258" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8361,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
-      </c>
-      <c r="G259" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8387,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>296</v>
-      </c>
-      <c r="G260" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8413,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
-      </c>
-      <c r="G261" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8439,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>296</v>
-      </c>
-      <c r="G262" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8465,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
-      </c>
-      <c r="G263" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8491,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>296</v>
-      </c>
-      <c r="G264" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8517,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>29</v>
-      </c>
-      <c r="G265" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8543,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>296</v>
-      </c>
-      <c r="G266" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8569,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
-      </c>
-      <c r="G267" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8595,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>296</v>
-      </c>
-      <c r="G268" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8621,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
-      </c>
-      <c r="G269" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8647,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>296</v>
-      </c>
-      <c r="G270" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8673,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>29</v>
-      </c>
-      <c r="G271" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8699,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>296</v>
-      </c>
-      <c r="G272" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8725,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
-      </c>
-      <c r="G273" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8751,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>296</v>
-      </c>
-      <c r="G274" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8777,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>29</v>
-      </c>
-      <c r="G275" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8803,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>296</v>
-      </c>
-      <c r="G276" t="s">
+        <v>275</v>
+      </c>
+      <c r="G276" t="s"/>
+      <c r="H276" t="s">
         <v>297</v>
-      </c>
-      <c r="H276" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8829,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>18</v>
-      </c>
-      <c r="G277" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8855,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
-      </c>
-      <c r="G278" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8881,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>296</v>
-      </c>
-      <c r="G279" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8907,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>29</v>
-      </c>
-      <c r="G280" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8933,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8959,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
-      </c>
-      <c r="G282" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8985,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9011,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>29</v>
-      </c>
-      <c r="G284" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9037,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>23</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9063,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9089,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>29</v>
-      </c>
-      <c r="G287" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9115,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>331</v>
-      </c>
-      <c r="G288" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9141,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>29</v>
-      </c>
-      <c r="G289" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9167,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>331</v>
-      </c>
-      <c r="G290" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9193,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>29</v>
-      </c>
-      <c r="G291" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9219,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>331</v>
-      </c>
-      <c r="G292" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9245,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9271,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>331</v>
-      </c>
-      <c r="G294" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9297,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>29</v>
-      </c>
-      <c r="G295" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9323,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>331</v>
-      </c>
-      <c r="G296" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9349,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9375,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
-      </c>
-      <c r="G298" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9401,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>331</v>
-      </c>
-      <c r="G299" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9427,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>18</v>
-      </c>
-      <c r="G300" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9453,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>29</v>
-      </c>
-      <c r="G301" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9479,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>331</v>
-      </c>
-      <c r="G302" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9505,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>29</v>
-      </c>
-      <c r="G303" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9531,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9557,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>29</v>
-      </c>
-      <c r="G305" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9583,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>29</v>
-      </c>
-      <c r="G306" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9609,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>29</v>
-      </c>
-      <c r="G307" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9635,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9661,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>29</v>
-      </c>
-      <c r="G309" t="s">
-        <v>325</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9687,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
-      </c>
-      <c r="G310" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9713,13 +9014,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>354</v>
-      </c>
-      <c r="G311" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9739,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>18</v>
-      </c>
-      <c r="G312" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9765,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>354</v>
-      </c>
-      <c r="G313" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9791,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>18</v>
-      </c>
-      <c r="G314" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9817,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>331</v>
-      </c>
-      <c r="G315" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9843,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>354</v>
-      </c>
-      <c r="G316" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9869,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>331</v>
-      </c>
-      <c r="G317" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9895,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>354</v>
-      </c>
-      <c r="G318" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9921,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>29</v>
-      </c>
-      <c r="G319" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9947,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>354</v>
-      </c>
-      <c r="G320" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9973,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>29</v>
-      </c>
-      <c r="G321" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9999,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>354</v>
-      </c>
-      <c r="G322" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10025,13 +9302,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>29</v>
-      </c>
-      <c r="G323" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10051,13 +9326,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>354</v>
-      </c>
-      <c r="G324" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10077,13 +9350,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>29</v>
-      </c>
-      <c r="G325" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10103,13 +9374,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>354</v>
-      </c>
-      <c r="G326" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10129,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>29</v>
-      </c>
-      <c r="G327" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10155,13 +9422,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>354</v>
-      </c>
-      <c r="G328" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10181,13 +9446,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>29</v>
-      </c>
-      <c r="G329" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10207,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>354</v>
-      </c>
-      <c r="G330" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10233,13 +9494,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
-      </c>
-      <c r="G331" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10259,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>354</v>
-      </c>
-      <c r="G332" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10285,13 +9542,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
-      </c>
-      <c r="G333" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10311,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>354</v>
-      </c>
-      <c r="G334" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10337,13 +9590,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
-      </c>
-      <c r="G335" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10363,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>354</v>
-      </c>
-      <c r="G336" t="s">
+        <v>330</v>
+      </c>
+      <c r="G336" t="s"/>
+      <c r="H336" t="s">
         <v>355</v>
-      </c>
-      <c r="H336" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10389,13 +9638,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>18</v>
-      </c>
-      <c r="G337" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10415,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>29</v>
-      </c>
-      <c r="G338" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10441,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>354</v>
-      </c>
-      <c r="G339" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10467,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>29</v>
-      </c>
-      <c r="G340" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10493,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>354</v>
-      </c>
-      <c r="G341" t="s">
-        <v>355</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10519,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>29</v>
-      </c>
-      <c r="G342" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10545,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>18</v>
-      </c>
-      <c r="G343" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10571,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>29</v>
-      </c>
-      <c r="G344" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10597,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10623,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>389</v>
-      </c>
-      <c r="G346" t="s">
-        <v>390</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10649,13 +9878,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>29</v>
-      </c>
-      <c r="G347" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10675,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>389</v>
-      </c>
-      <c r="G348" t="s">
-        <v>390</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10701,13 +9926,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
-      </c>
-      <c r="G349" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10727,13 +9950,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>389</v>
-      </c>
-      <c r="G350" t="s">
-        <v>390</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10753,13 +9974,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>18</v>
-      </c>
-      <c r="G351" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10779,13 +9998,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>45</v>
-      </c>
-      <c r="G352" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10805,13 +10022,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>29</v>
-      </c>
-      <c r="G353" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10831,13 +10046,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
-      </c>
-      <c r="G354" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10857,13 +10070,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>18</v>
-      </c>
-      <c r="G355" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10883,13 +10094,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>401</v>
-      </c>
-      <c r="G356" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10909,13 +10118,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>29</v>
-      </c>
-      <c r="G357" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10935,13 +10142,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>401</v>
-      </c>
-      <c r="G358" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10961,13 +10166,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>29</v>
-      </c>
-      <c r="G359" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10987,13 +10190,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>401</v>
-      </c>
-      <c r="G360" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11013,13 +10214,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>29</v>
-      </c>
-      <c r="G361" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11039,13 +10238,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>401</v>
-      </c>
-      <c r="G362" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11065,13 +10262,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
-      </c>
-      <c r="G363" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11091,13 +10286,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>401</v>
-      </c>
-      <c r="G364" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11117,13 +10310,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>29</v>
-      </c>
-      <c r="G365" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11143,13 +10334,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>401</v>
-      </c>
-      <c r="G366" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11169,13 +10358,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>29</v>
-      </c>
-      <c r="G367" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11195,13 +10382,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>401</v>
-      </c>
-      <c r="G368" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11221,13 +10406,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>29</v>
-      </c>
-      <c r="G369" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11247,13 +10430,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>401</v>
-      </c>
-      <c r="G370" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11273,13 +10454,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>29</v>
-      </c>
-      <c r="G371" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11299,13 +10478,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>401</v>
-      </c>
-      <c r="G372" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11325,13 +10502,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>29</v>
-      </c>
-      <c r="G373" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11351,13 +10526,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>401</v>
-      </c>
-      <c r="G374" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11377,13 +10550,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>29</v>
-      </c>
-      <c r="G375" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11403,13 +10574,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>401</v>
-      </c>
-      <c r="G376" t="s">
-        <v>402</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11429,13 +10598,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>18</v>
-      </c>
-      <c r="G377" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
